--- a/Inn-flow/src/test/resources/Inn-Flow_TestCase.xlsx
+++ b/Inn-flow/src/test/resources/Inn-Flow_TestCase.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\softe\eclipse-workspace\Inn-flow\Inn-flow\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3EB0E5-222E-4E5C-81F8-5980FCE50F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA120EFB-9009-4766-B47D-C1D4413DD7A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="4" xr2:uid="{3054158E-1705-43DF-B16F-5FAAD8E7B734}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="3" xr2:uid="{3054158E-1705-43DF-B16F-5FAAD8E7B734}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase_TC02" sheetId="1" r:id="rId1"/>
     <sheet name="TestCase_TC03" sheetId="3" r:id="rId2"/>
     <sheet name="TestCase_TC04" sheetId="6" r:id="rId3"/>
-    <sheet name="TestCaseDetails" sheetId="4" r:id="rId4"/>
-    <sheet name="DD" sheetId="2" r:id="rId5"/>
+    <sheet name="TestCase_TC05" sheetId="7" r:id="rId4"/>
+    <sheet name="TestCaseDetails" sheetId="4" r:id="rId5"/>
+    <sheet name="DD" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="267">
   <si>
     <t>TCNo.</t>
   </si>
@@ -807,6 +808,210 @@
   </si>
   <si>
     <t>crtNewUserWithoutPayroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected results </t>
+  </si>
+  <si>
+    <t>TC0010</t>
+  </si>
+  <si>
+    <t>Verify the Search Box By Any Roll of User</t>
+  </si>
+  <si>
+    <t>Verify the Search Box By Any Status of User</t>
+  </si>
+  <si>
+    <t>Verify the Search Box By Any EHID of Element</t>
+  </si>
+  <si>
+    <t>TC0011</t>
+  </si>
+  <si>
+    <t>Verify the Search Box By Any PayType of User</t>
+  </si>
+  <si>
+    <t>crtNewUserWithPayroll</t>
+  </si>
+  <si>
+    <t>Verify the Search Box By Sort element column by "Name","Staus","Type".</t>
+  </si>
+  <si>
+    <t>chakeEnabilityByclickElement</t>
+  </si>
+  <si>
+    <t>validateSearchBox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Put any Rolls  and validate  the result of web_table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Put any status  and validate the result of web_table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Put any EHID  and validate  the result of web_table </t>
+  </si>
+  <si>
+    <t>validateFilterByStatus</t>
+  </si>
+  <si>
+    <t>validateFilterByEHID</t>
+  </si>
+  <si>
+    <t>validateFilterByRolls</t>
+  </si>
+  <si>
+    <t>validateFilterByPayType</t>
+  </si>
+  <si>
+    <t>validateShortingTab</t>
+  </si>
+  <si>
+    <t>TC0012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Velidate that user should be able to ADD PTO</t>
+  </si>
+  <si>
+    <t>Select Hotals for payroll</t>
+  </si>
+  <si>
+    <t>Filled Details and Navigated on LabourPage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChakeEnability by clicking and Fill Details </t>
+  </si>
+  <si>
+    <t>SaveDetails by save button and validate Added EHID</t>
+  </si>
+  <si>
+    <t>validate_AddPTOTab</t>
+  </si>
+  <si>
+    <t>validate_AddReviewTab</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Velidate that user should be able to ADD Review</t>
+  </si>
+  <si>
+    <t>TC0013</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>emp_type</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Exclude from Payroll</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Hourly Wage</t>
+  </si>
+  <si>
+    <t>TC0014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filled Random  New UserDetails  Navigated on UserPage </t>
+  </si>
+  <si>
+    <t>Filled all details and navigated on DocumentPage</t>
+  </si>
+  <si>
+    <t>TC0015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Enability of Export and save as default view </t>
+  </si>
+  <si>
+    <t>validate_ExportButton</t>
+  </si>
+  <si>
+    <t>TC0016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the functionality of Type field on Document Page </t>
+  </si>
+  <si>
+    <t>validateDocumentPage_Type</t>
+  </si>
+  <si>
+    <t>validateDocumentPage_uploadFile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the functionality of browse field on Document Page </t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>TC0017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Salary Exempt from OT By Field </t>
+  </si>
+  <si>
+    <t>TC0018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Salary Non- Exempt from OT By Field </t>
+  </si>
+  <si>
+    <t>validateSalaryExamptFromOT</t>
+  </si>
+  <si>
+    <t>validateNonSalaryExamptFromOT</t>
+  </si>
+  <si>
+    <t>Verify By Non-OT by Time</t>
+  </si>
+  <si>
+    <t>Verify By Add OT by Time</t>
+  </si>
+  <si>
+    <t>Salary Exempt from OT</t>
+  </si>
+  <si>
+    <t>Salary Non Exempt from OT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the Models  Page of LM Module   </t>
+  </si>
+  <si>
+    <t>Navigate to LM Page</t>
+  </si>
+  <si>
+    <t>Navigate to Models Page</t>
+  </si>
+  <si>
+    <t>Navigate on  Add New Models</t>
+  </si>
+  <si>
+    <t>validateEnabilityOfModulePage</t>
+  </si>
+  <si>
+    <t>validateCreateNewModuleOfPage</t>
   </si>
 </sst>
 </file>
@@ -911,7 +1116,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF002060"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -944,7 +1149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1015,14 +1220,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1037,9 +1242,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1358,8 +1560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27098E73-1BD4-4C4E-81D5-A3F3D2E601F4}">
   <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3547,7 +3749,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E16"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3615,7 +3817,7 @@
       <c r="H2" t="s">
         <v>158</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="33" t="s">
         <v>168</v>
       </c>
       <c r="J2" s="19"/>
@@ -3653,15 +3855,15 @@
       <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B5" s="33"/>
+      <c r="B5" s="32"/>
       <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B6" s="33"/>
+      <c r="B6" s="32"/>
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B7" s="33"/>
+      <c r="B7" s="32"/>
       <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
@@ -3693,7 +3895,7 @@
       <c r="H9" t="s">
         <v>163</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="33" t="s">
         <v>167</v>
       </c>
       <c r="J9" s="19"/>
@@ -3826,7 +4028,7 @@
       <c r="H20" t="s">
         <v>163</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="33" t="s">
         <v>167</v>
       </c>
       <c r="J20" s="19"/>
@@ -3913,7 +4115,7 @@
       <c r="H28" t="s">
         <v>163</v>
       </c>
-      <c r="I28" s="34" t="s">
+      <c r="I28" s="33" t="s">
         <v>167</v>
       </c>
       <c r="J28" s="19"/>
@@ -3962,16 +4164,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="B2:B4"/>
     <mergeCell ref="E13:E16"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3992,10 +4194,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB2B2A6-F947-4A1C-9C67-355EC4C5D89D}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4003,14 +4205,15 @@
     <col min="1" max="1" width="27.23046875" customWidth="1"/>
     <col min="2" max="2" width="30.69140625" customWidth="1"/>
     <col min="3" max="3" width="9.765625" customWidth="1"/>
-    <col min="4" max="4" width="41.4609375" customWidth="1"/>
-    <col min="5" max="5" width="24.84375" customWidth="1"/>
-    <col min="6" max="6" width="18.921875" customWidth="1"/>
-    <col min="7" max="7" width="18.23046875" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="4" max="4" width="46.3828125" customWidth="1"/>
+    <col min="5" max="5" width="30.15234375" customWidth="1"/>
+    <col min="6" max="6" width="37.69140625" customWidth="1"/>
+    <col min="7" max="7" width="18.921875" customWidth="1"/>
+    <col min="8" max="8" width="23.921875" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="54.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="54.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4024,22 +4227,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -4049,23 +4255,24 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" t="s">
         <v>174</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>85</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>163</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="I2" s="33" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B3" s="37"/>
       <c r="C3">
         <v>2</v>
@@ -4073,14 +4280,14 @@
       <c r="D3" t="s">
         <v>171</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>88</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B4" s="37"/>
       <c r="C4">
         <v>3</v>
@@ -4089,7 +4296,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C5">
         <v>4</v>
       </c>
@@ -4097,7 +4304,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C6">
         <v>5</v>
       </c>
@@ -4105,7 +4312,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -4115,65 +4322,71 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" t="s">
         <v>181</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>85</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>182</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="I8" s="33" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B9" s="37"/>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" s="34"/>
+      <c r="G9" t="s">
         <v>88</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="34" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="E10" s="34"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C11">
         <v>4</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="34" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="34" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D13" s="35"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.9" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E12" s="34"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -4183,119 +4396,163 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="34"/>
+      <c r="F14" t="s">
         <v>198</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>85</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>182</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="I14" s="33" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B15" s="37"/>
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" s="34"/>
+      <c r="G15" t="s">
         <v>88</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="34" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E16" s="34"/>
+      <c r="G16" t="s">
+        <v>228</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C17">
         <v>4</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="34" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E17" s="34"/>
+      <c r="G17" t="s">
+        <v>229</v>
+      </c>
+      <c r="H17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C18">
         <v>5</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="34" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E18" s="34"/>
+      <c r="G18" t="s">
+        <v>230</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C19">
         <v>6</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="34" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E19" s="34"/>
+      <c r="G19" t="s">
+        <v>231</v>
+      </c>
+      <c r="H19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C20">
         <v>7</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="34" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E20" s="34"/>
+      <c r="G20" t="s">
+        <v>232</v>
+      </c>
+      <c r="H20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C21">
         <v>8</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="34" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E21" s="34"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C22">
         <v>9</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="34" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E22" s="34"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C23">
         <v>10</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="D23" s="34" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E23" s="34"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C24">
         <v>11</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="34" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D25" s="35"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D26" s="35"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="D27" s="35"/>
-    </row>
-    <row r="28" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E24" s="34"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+    </row>
+    <row r="28" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -4305,107 +4562,151 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="34" t="s">
         <v>170</v>
       </c>
+      <c r="E28" s="34"/>
       <c r="F28" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" t="s">
         <v>85</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>182</v>
       </c>
-      <c r="H28" s="34" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I28" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B29" s="37"/>
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="F29" t="s">
+      <c r="E29" s="34"/>
+      <c r="G29" t="s">
         <v>88</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C30">
         <v>3</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="34" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E30" s="34"/>
+      <c r="G30" t="s">
+        <v>228</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C31">
         <v>4</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="D31" s="34" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E31" s="34"/>
+      <c r="G31" t="s">
+        <v>229</v>
+      </c>
+      <c r="H31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C32">
         <v>5</v>
       </c>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="34" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E32" s="34"/>
+      <c r="G32" t="s">
+        <v>230</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C33">
         <v>6</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="34" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E33" s="34"/>
+      <c r="G33" t="s">
+        <v>231</v>
+      </c>
+      <c r="H33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C34">
         <v>7</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="34" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E34" s="34"/>
+      <c r="G34" t="s">
+        <v>232</v>
+      </c>
+      <c r="H34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C35">
         <v>8</v>
       </c>
-      <c r="D35" s="35" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D35" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E35" s="34"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C36">
         <v>9</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="34" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E36" s="34"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C37">
         <v>10</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="34" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E37" s="34"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C38">
         <v>11</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="34" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="E38" s="34"/>
+    </row>
+    <row r="41" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
@@ -4415,43 +4716,49 @@
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="34" t="s">
         <v>170</v>
       </c>
+      <c r="E41" s="34"/>
       <c r="F41" t="s">
+        <v>208</v>
+      </c>
+      <c r="G41" t="s">
         <v>85</v>
       </c>
-      <c r="G41" t="s">
-        <v>163</v>
-      </c>
-      <c r="H41" s="34" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H41" t="s">
+        <v>182</v>
+      </c>
+      <c r="I41" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B42" s="37"/>
       <c r="C42">
         <v>2</v>
       </c>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="F42" t="s">
+      <c r="E42" s="34"/>
+      <c r="G42" t="s">
         <v>88</v>
       </c>
-      <c r="G42" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C43">
         <v>3</v>
       </c>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="34" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="E43" s="34"/>
+    </row>
+    <row r="46" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A46" s="1" t="s">
         <v>30</v>
       </c>
@@ -4461,45 +4768,962 @@
       <c r="C46">
         <v>1</v>
       </c>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="34" t="s">
         <v>170</v>
       </c>
+      <c r="E46" s="34"/>
       <c r="F46" t="s">
+        <v>209</v>
+      </c>
+      <c r="G46" t="s">
         <v>85</v>
       </c>
-      <c r="G46" t="s">
-        <v>163</v>
-      </c>
-      <c r="H46" s="34" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H46" t="s">
+        <v>182</v>
+      </c>
+      <c r="I46" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B47" s="37"/>
       <c r="C47">
         <v>2</v>
       </c>
-      <c r="D47" s="35" t="s">
+      <c r="D47" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="F47" t="s">
+      <c r="E47" s="34"/>
+      <c r="G47" t="s">
         <v>88</v>
       </c>
-      <c r="G47" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C48">
         <v>3</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="34" t="s">
         <v>196</v>
       </c>
+      <c r="E48" s="34"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+    </row>
+    <row r="51" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E51" s="34"/>
+      <c r="F51" t="s">
+        <v>213</v>
+      </c>
+      <c r="G51" t="s">
+        <v>85</v>
+      </c>
+      <c r="H51" t="s">
+        <v>182</v>
+      </c>
+      <c r="I51" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B52" s="37"/>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="E52" s="34"/>
+      <c r="G52" t="s">
+        <v>88</v>
+      </c>
+      <c r="H52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="E53" s="34"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="E54" s="34"/>
+    </row>
+    <row r="56" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" s="34"/>
+      <c r="F56" t="s">
+        <v>215</v>
+      </c>
+      <c r="G56" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" t="s">
+        <v>182</v>
+      </c>
+      <c r="I56" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B57" s="37"/>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="E57" s="34"/>
+      <c r="G57" t="s">
+        <v>88</v>
+      </c>
+      <c r="H57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="E58" s="34"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="E59" s="34"/>
+    </row>
+    <row r="61" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E61" s="34"/>
+      <c r="F61" t="s">
+        <v>214</v>
+      </c>
+      <c r="G61" t="s">
+        <v>85</v>
+      </c>
+      <c r="H61" t="s">
+        <v>182</v>
+      </c>
+      <c r="I61" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B62" s="37"/>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="E62" s="34"/>
+      <c r="G62" t="s">
+        <v>88</v>
+      </c>
+      <c r="H62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="E63" s="34"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A66" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E66" s="34"/>
+      <c r="F66" t="s">
+        <v>216</v>
+      </c>
+      <c r="G66" t="s">
+        <v>85</v>
+      </c>
+      <c r="H66" t="s">
+        <v>182</v>
+      </c>
+      <c r="I66" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B67" s="37"/>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="E67" s="34"/>
+      <c r="G67" t="s">
+        <v>88</v>
+      </c>
+      <c r="H67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="E68" s="34"/>
+      <c r="G68" t="s">
+        <v>231</v>
+      </c>
+      <c r="H68" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="18.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A71" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B71" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E71" s="34"/>
+      <c r="F71" t="s">
+        <v>217</v>
+      </c>
+      <c r="G71" t="s">
+        <v>85</v>
+      </c>
+      <c r="H71" t="s">
+        <v>182</v>
+      </c>
+      <c r="I71" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B72" s="37"/>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="E72" s="34"/>
+      <c r="G72" t="s">
+        <v>88</v>
+      </c>
+      <c r="H72" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B73" s="37"/>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="E73" s="34"/>
+    </row>
+    <row r="76" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A76" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F76" t="s">
+        <v>224</v>
+      </c>
+      <c r="G76" t="s">
+        <v>85</v>
+      </c>
+      <c r="H76" t="s">
+        <v>182</v>
+      </c>
+      <c r="I76" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B77" s="37"/>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="G77" t="s">
+        <v>88</v>
+      </c>
+      <c r="H77" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="G78" t="s">
+        <v>228</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G79" t="s">
+        <v>229</v>
+      </c>
+      <c r="H79" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="G80" t="s">
+        <v>230</v>
+      </c>
+      <c r="H80" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C81">
+        <v>6</v>
+      </c>
+      <c r="D81" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="G81" t="s">
+        <v>231</v>
+      </c>
+      <c r="H81" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G82" t="s">
+        <v>232</v>
+      </c>
+      <c r="H82" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A84" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B84" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F84" t="s">
+        <v>225</v>
+      </c>
+      <c r="G84" t="s">
+        <v>85</v>
+      </c>
+      <c r="H84" t="s">
+        <v>182</v>
+      </c>
+      <c r="I84" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B85" s="37"/>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="G85" t="s">
+        <v>88</v>
+      </c>
+      <c r="H85" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="G86" t="s">
+        <v>228</v>
+      </c>
+      <c r="H86" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G87" t="s">
+        <v>229</v>
+      </c>
+      <c r="H87" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="G88" t="s">
+        <v>230</v>
+      </c>
+      <c r="H88" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C89">
+        <v>6</v>
+      </c>
+      <c r="D89" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="G89" t="s">
+        <v>231</v>
+      </c>
+      <c r="H89" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G90" t="s">
+        <v>232</v>
+      </c>
+      <c r="H90" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A92" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="B92" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F92" t="s">
+        <v>247</v>
+      </c>
+      <c r="G92" t="s">
+        <v>85</v>
+      </c>
+      <c r="H92" t="s">
+        <v>182</v>
+      </c>
+      <c r="I92" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B93" s="37"/>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="G93" t="s">
+        <v>88</v>
+      </c>
+      <c r="H93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="G94" t="s">
+        <v>228</v>
+      </c>
+      <c r="H94" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G95" t="s">
+        <v>229</v>
+      </c>
+      <c r="H95" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G96" t="s">
+        <v>230</v>
+      </c>
+      <c r="H96" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G97" t="s">
+        <v>231</v>
+      </c>
+      <c r="H97" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G98" t="s">
+        <v>232</v>
+      </c>
+      <c r="H98" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A99" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B99" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F99" t="s">
+        <v>244</v>
+      </c>
+      <c r="G99" t="s">
+        <v>85</v>
+      </c>
+      <c r="H99" t="s">
+        <v>182</v>
+      </c>
+      <c r="I99" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B100" s="37"/>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="G100" t="s">
+        <v>88</v>
+      </c>
+      <c r="H100" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A105" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B105" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="D105" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F105" t="s">
+        <v>248</v>
+      </c>
+      <c r="G105" t="s">
+        <v>85</v>
+      </c>
+      <c r="H105" t="s">
+        <v>182</v>
+      </c>
+      <c r="I105" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B106" s="37"/>
+      <c r="D106" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="G106" t="s">
+        <v>88</v>
+      </c>
+      <c r="H106" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D107" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="G107" t="s">
+        <v>228</v>
+      </c>
+      <c r="H107" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D108" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G108" t="s">
+        <v>229</v>
+      </c>
+      <c r="H108" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D109" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G109" t="s">
+        <v>230</v>
+      </c>
+      <c r="H109" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G110" t="s">
+        <v>231</v>
+      </c>
+      <c r="H110" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G111" t="s">
+        <v>232</v>
+      </c>
+      <c r="H111" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A114" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B114" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="D114" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F114" t="s">
+        <v>255</v>
+      </c>
+      <c r="G114" t="s">
+        <v>85</v>
+      </c>
+      <c r="H114" t="s">
+        <v>182</v>
+      </c>
+      <c r="I114" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B115" s="37"/>
+      <c r="D115" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="G115" t="s">
+        <v>88</v>
+      </c>
+      <c r="H115" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D116" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="G116" t="s">
+        <v>228</v>
+      </c>
+      <c r="H116" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D117" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G117" t="s">
+        <v>229</v>
+      </c>
+      <c r="H117" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D118" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="G118" t="s">
+        <v>230</v>
+      </c>
+      <c r="H118" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G119" t="s">
+        <v>231</v>
+      </c>
+      <c r="H119" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G120" t="s">
+        <v>232</v>
+      </c>
+      <c r="H120" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A123" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B123" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="D123" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F123" t="s">
+        <v>256</v>
+      </c>
+      <c r="G123" t="s">
+        <v>85</v>
+      </c>
+      <c r="H123" t="s">
+        <v>182</v>
+      </c>
+      <c r="I123" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B124" s="37"/>
+      <c r="D124" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="G124" t="s">
+        <v>88</v>
+      </c>
+      <c r="H124" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D125" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="G125" t="s">
+        <v>228</v>
+      </c>
+      <c r="H125" s="23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D126" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G126" t="s">
+        <v>229</v>
+      </c>
+      <c r="H126" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D127" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="G127" t="s">
+        <v>230</v>
+      </c>
+      <c r="H127" s="23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G128" t="s">
+        <v>231</v>
+      </c>
+      <c r="H128" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="129" spans="7:8" x14ac:dyDescent="0.4">
+      <c r="G129" t="s">
+        <v>232</v>
+      </c>
+      <c r="H129" t="s">
+        <v>237</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="18">
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="B84:B85"/>
     <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B71:B73"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B14:B15"/>
@@ -4515,7 +5739,7 @@
           <x14:formula1>
             <xm:f>DD!$A$3:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H2 H8 H14 H28 H41 H46</xm:sqref>
+          <xm:sqref>I2 I8 I14 I28 I41 I46 I51 I56 I61 I66 I71 I76 I84 I92 I99 I105 I114 I123</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4524,6 +5748,210 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED9C6D8-9B21-4B6C-ACAD-7D37C7D40F20}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.765625" customWidth="1"/>
+    <col min="2" max="2" width="14.921875" customWidth="1"/>
+    <col min="4" max="4" width="39.15234375" customWidth="1"/>
+    <col min="5" max="5" width="19.4609375" customWidth="1"/>
+    <col min="6" max="6" width="28.3046875" customWidth="1"/>
+    <col min="7" max="7" width="12.15234375" customWidth="1"/>
+    <col min="8" max="8" width="15.921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B3" s="37"/>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B4" s="37"/>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="37"/>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="37"/>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B8:B10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Run Sataus" xr:uid="{52C99129-E6CC-4E7B-ADFC-04855E745923}">
+          <x14:formula1>
+            <xm:f>DD!$A$3:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2 I8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A65985-698F-4FC6-A405-A40F3B6E6E81}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4535,12 +5963,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4DB422D-48A0-44BA-A172-0BB06FC424AB}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4556,12 +5984,12 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="35" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="35" t="s">
         <v>168</v>
       </c>
     </row>
